--- a/data_sigmoid_no_exact_verif_bounds_tightness_1como2_tolper5.xlsx
+++ b/data_sigmoid_no_exact_verif_bounds_tightness_1como2_tolper5.xlsx
@@ -452,13 +452,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9987244897959183</v>
+        <v>0.9974489795918368</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
